--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>909906.8610431039</v>
+        <v>910691.0069811327</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4869222.042739263</v>
+        <v>4869222.042739264</v>
       </c>
     </row>
     <row r="11">
@@ -656,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>117.8361325871478</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>47.29627918133471</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,70 +898,70 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -981,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>13.96552070152476</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,10 +1025,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>119.8469440170073</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1136,7 +1138,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1269,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1458,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>85.80043703055078</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1503,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>80.86228322859418</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>112.6175240304929</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1737,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>180.2735260549796</v>
       </c>
     </row>
     <row r="16">
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>241.0142888776591</v>
@@ -1907,10 +1909,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
     </row>
     <row r="18">
@@ -1926,16 +1928,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>80.53695628916644</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>62.13484214871499</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1986,10 +1988,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2081,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2123,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2135,13 +2137,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>202.2946864288972</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2205,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>26.03884259583682</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2369,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>83.03189205754171</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>143.1689537721621</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2518,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>63.9260459295682</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2646,16 +2648,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>98.22847700514947</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2713,58 +2715,58 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2837,28 +2839,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2880,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>150.9993436124999</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>176.3715233222389</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2950,70 +2952,70 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,10 +3031,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>97.48188567889163</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>28.41964442677785</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3202,49 +3204,49 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3266,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3308,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>7.778646031951277</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3357,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.267950091052405</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3405,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>226.8622146253026</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3445,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3463,10 +3465,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3506,7 +3508,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3545,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3594,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>56.26539607665198</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3639,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>220.0282559522099</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3746,7 +3748,7 @@
         <v>181.0201173812374</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>13.74034240511223</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -3882,10 +3884,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>7.565027066663822</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,23 +3976,23 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,16 +4021,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>9.211010870930394</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4107,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
       <c r="Y45" t="n">
-        <v>186.3732331246961</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C2" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F2" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G2" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H2" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4340,10 +4342,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4361,19 +4363,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.8944568361894</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
@@ -4416,7 +4418,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N3" t="n">
         <v>366.5706756325438</v>
@@ -4431,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V3" t="n">
-        <v>774.2973583780361</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="W3" t="n">
-        <v>774.2973583780361</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="X3" t="n">
-        <v>566.7035761171468</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="Y3" t="n">
-        <v>359.1097938562575</v>
+        <v>339.8907214957869</v>
       </c>
     </row>
     <row r="4">
@@ -4504,10 +4506,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="R4" t="n">
         <v>16.44142755506243</v>
@@ -4541,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>224.0352098159517</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4568,16 +4570,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4604,13 +4606,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>177.0825720953742</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>177.0825720953742</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>177.0825720953742</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>162.9759855281775</v>
       </c>
       <c r="F6" t="n">
         <v>16.44142755506243</v>
@@ -4647,22 +4649,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
@@ -4671,25 +4673,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="W6" t="n">
-        <v>513.308066045118</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="X6" t="n">
-        <v>392.2505468360198</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>345.2979091154422</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4747,28 +4749,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>431.628992076841</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D8" t="n">
         <v>16.44142755506243</v>
@@ -4811,10 +4813,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4826,28 +4828,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="X8" t="n">
-        <v>431.628992076841</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="Y8" t="n">
-        <v>431.628992076841</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D9" t="n">
         <v>16.44142755506243</v>
@@ -4884,10 +4886,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>163.1080096386462</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
         <v>163.1080096386462</v>
@@ -4917,16 +4919,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X9" t="n">
-        <v>224.0352098159517</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4984,28 +4986,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
         <v>16.44142755506243</v>
@@ -5045,10 +5047,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5072,19 +5074,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V11" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="V11" t="n">
-        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
         <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.44142755506243</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,13 +5126,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5288,10 +5290,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5312,16 +5314,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>619.8847831118876</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C15" t="n">
-        <v>619.8847831118876</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D15" t="n">
-        <v>619.8847831118876</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5361,19 +5363,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5385,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>619.8847831118876</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V15" t="n">
-        <v>619.8847831118876</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W15" t="n">
-        <v>619.8847831118876</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X15" t="n">
-        <v>619.8847831118876</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y15" t="n">
-        <v>619.8847831118876</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>962.2293816994886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>475.3318284112885</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W17" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X17" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>901.2946886937524</v>
+        <v>548.4453565401495</v>
       </c>
       <c r="C18" t="n">
-        <v>726.8416594126254</v>
+        <v>373.9923272590225</v>
       </c>
       <c r="D18" t="n">
-        <v>577.9072497513741</v>
+        <v>373.9923272590225</v>
       </c>
       <c r="E18" t="n">
-        <v>418.6697947459187</v>
+        <v>214.754872253567</v>
       </c>
       <c r="F18" t="n">
-        <v>272.1352367728036</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G18" t="n">
         <v>133.4044113554191</v>
@@ -5604,10 +5606,10 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>901.2946886937524</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>901.2946886937524</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>901.2946886937524</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>901.2946886937524</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>901.2946886937524</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>901.2946886937524</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>901.2946886937524</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y18" t="n">
-        <v>901.2946886937524</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="19">
@@ -5698,7 +5700,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5771,16 +5773,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
         <v>749.627473042513</v>
@@ -5789,13 +5791,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>466.183833194304</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>466.183833194304</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>317.2494235330527</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>634.399170214372</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>634.399170214372</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>634.399170214372</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>634.399170214372</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y21" t="n">
-        <v>634.399170214372</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="22">
@@ -5935,7 +5937,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
         <v>19.28114311021272</v>
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>312.8306575918298</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>163.8962479305785</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6078,40 +6080,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V24" t="n">
-        <v>728.9050472788936</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W24" t="n">
-        <v>485.4562706347935</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X24" t="n">
-        <v>277.6047704292607</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y24" t="n">
-        <v>277.6047704292607</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="25">
@@ -6166,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C26" t="n">
         <v>19.28114311021272</v>
@@ -6251,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>257.2326523711826</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C27" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>118.5018269537981</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X27" t="n">
-        <v>257.2326523711826</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y27" t="n">
-        <v>257.2326523711826</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="28">
@@ -6358,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
         <v>19.28114311021272</v>
@@ -6412,22 +6414,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T29" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U29" t="n">
-        <v>122.6530896684844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>340.2687303644548</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6543,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>487.8483949674443</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6579,13 +6581,13 @@
         <v>761.8705608694022</v>
       </c>
       <c r="W30" t="n">
-        <v>518.4217842253022</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X30" t="n">
-        <v>518.4217842253022</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y30" t="n">
-        <v>340.2687303644548</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>257.2326523711826</v>
+        <v>284.787934186969</v>
       </c>
       <c r="C33" t="n">
-        <v>257.2326523711826</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D33" t="n">
-        <v>257.2326523711826</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E33" t="n">
-        <v>257.2326523711826</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F33" t="n">
-        <v>158.7661011803829</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6783,13 +6785,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="X33" t="n">
-        <v>257.2326523711826</v>
+        <v>660.7635699719909</v>
       </c>
       <c r="Y33" t="n">
-        <v>257.2326523711826</v>
+        <v>453.003271207037</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="C35" t="n">
         <v>243.9530410142718</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>956.199937296544</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>956.199937296544</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>956.199937296544</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>730.8505943024719</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>730.8505943024719</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="V35" t="n">
-        <v>730.8505943024719</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="W35" t="n">
-        <v>730.8505943024719</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="X35" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="Y35" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>756.2968567456824</v>
+        <v>353.7257600495809</v>
       </c>
       <c r="C36" t="n">
-        <v>581.8438274645554</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="D36" t="n">
-        <v>432.9094178033041</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E36" t="n">
-        <v>273.6719627978486</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>273.6719627978486</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>134.9411373804641</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>21.57200178804344</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7041,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>561.4860588145348</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>561.4860588145348</v>
       </c>
       <c r="Y36" t="n">
-        <v>756.2968567456824</v>
+        <v>353.7257600495809</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>852.019301208126</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
         <v>829.5248650203655</v>
@@ -7111,34 +7113,34 @@
         <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>961.308225475175</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>946.3215033461793</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>946.3215033461793</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>946.3215033461793</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>946.3215033461793</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C38" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C38" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="U38" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U38" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>384.2867411876791</v>
+        <v>640.636862475431</v>
       </c>
       <c r="C39" t="n">
-        <v>384.2867411876791</v>
+        <v>466.183833194304</v>
       </c>
       <c r="D39" t="n">
-        <v>235.3523315264278</v>
+        <v>317.2494235330527</v>
       </c>
       <c r="E39" t="n">
-        <v>76.1148765209723</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F39" t="n">
-        <v>76.1148765209723</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G39" t="n">
         <v>19.28114311021272</v>
@@ -7287,16 +7289,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>384.2867411876791</v>
+        <v>640.636862475431</v>
       </c>
       <c r="X39" t="n">
-        <v>384.2867411876791</v>
+        <v>640.636862475431</v>
       </c>
       <c r="Y39" t="n">
-        <v>384.2867411876791</v>
+        <v>640.636862475431</v>
       </c>
     </row>
     <row r="40">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E41" t="n">
         <v>431.628992076841</v>
@@ -7412,19 +7414,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7454,7 +7456,7 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Y41" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="42">
@@ -7464,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>191.6485894889752</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="C42" t="n">
-        <v>17.19556020784815</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="D42" t="n">
-        <v>17.19556020784815</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="E42" t="n">
-        <v>17.19556020784815</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="F42" t="n">
-        <v>17.19556020784815</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="G42" t="n">
-        <v>17.19556020784815</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>31.07469395038575</v>
       </c>
       <c r="I42" t="n">
         <v>17.19556020784815</v>
@@ -7491,19 +7493,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>211.6833797714288</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M42" t="n">
-        <v>415.1460457653264</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N42" t="n">
-        <v>618.608711759224</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7530,10 +7532,10 @@
         <v>406.8838132313431</v>
       </c>
       <c r="X42" t="n">
+        <v>406.8838132313431</v>
+      </c>
+      <c r="Y42" t="n">
         <v>199.2900309704538</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>191.6485894889752</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7602,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7655,7 +7657,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7667,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="U44" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="V44" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="W44" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7730,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
         <v>822.0713777531216</v>
@@ -7755,19 +7757,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>412.2910008509983</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>204.697218590109</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>204.697218590109</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X45" t="n">
-        <v>204.697218590109</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
         <v>16.44142755506243</v>
@@ -7988,13 +7990,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>310.4448022570774</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,10 +8066,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N3" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8216,10 +8218,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8228,7 +8230,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>290.282096632709</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,13 +8461,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8532,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>286.7024424905649</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8693,13 +8695,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8936,13 +8938,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6582985944894</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9252,13 +9254,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9726,16 +9728,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9956,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,16 +10202,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>369.031319612638</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10431,16 +10433,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O33" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -11060,10 +11062,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
@@ -11075,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>335.768472927719</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11151,10 +11153,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11303,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>154.8597658442563</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22565,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>29.45577218916847</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22601,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>70.32553552659914</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22638,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>19.5073845760628</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22683,16 +22685,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>185.5043079680906</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>130.2684670434959</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,7 +22786,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22844,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22869,10 +22871,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>143.6795597538762</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22911,10 +22913,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22923,13 +22925,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>85.92604118647021</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22966,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23024,7 +23026,7 @@
         <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>323.5320421805953</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23066,7 +23068,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23100,10 +23102,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>139.1334471717171</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23157,7 +23159,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>51.78046976818791</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
@@ -23203,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23312,19 +23314,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23346,19 +23348,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>59.2687753628331</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23391,13 +23393,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>145.0790988523806</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23552,16 +23554,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23580,19 +23582,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>45.02755642490803</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23625,22 +23627,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>25.4091697223248</v>
       </c>
     </row>
     <row r="16">
@@ -23750,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>8.181203141508671</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23786,7 +23788,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>86.73796959247585</v>
@@ -23795,10 +23797,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126115</v>
       </c>
     </row>
     <row r="18">
@@ -23814,16 +23816,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>64.53225610421744</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.02299200392815</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23874,10 +23876,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23938,10 +23940,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23969,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24011,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24023,13 +24025,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>49.05096647893927</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V20" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24045,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>136.6438852588116</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24093,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>199.902539485138</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24175,10 +24177,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24257,19 +24259,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>83.50129159232563</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>14.47612668323882</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24330,25 +24332,25 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24406,13 +24408,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>176.9916737032986</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>344.0891364002832</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24491,10 +24493,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>102.6071377202991</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24534,16 +24536,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>14.00696723134699</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24652,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24725,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24768,7 +24770,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24819,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>100.6956395484197</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>29.31117245506542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,10 +24919,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,16 +25007,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>47.58732671449225</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>171.7450842680437</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25090,7 +25092,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25132,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25154,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.212053182593527</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>130.418315862507</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25245,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>87.12868276036268</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,7 +25283,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -25293,7 +25295,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>24.83276853561699</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25333,10 +25335,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25351,10 +25353,10 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.32518834398857</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25394,7 +25396,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25433,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>138.6760617849701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25482,7 +25484,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>81.07812108655865</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25527,10 +25529,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>31.66672720870966</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25631,10 +25633,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>173.6629242394455</v>
+        <v>173.6629242394456</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25725,7 +25727,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>75.65629044630285</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>198.1176687106405</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25874,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>213.8848386932009</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25928,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>188.7109832972317</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25995,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968219</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>19.30946265260823</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>410220.8829378689</v>
+        <v>410220.8829378688</v>
       </c>
     </row>
     <row r="5">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>432077.2935265362</v>
+        <v>432077.2935265363</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432077.2935265363</v>
+        <v>432077.2935265364</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>432077.2935265364</v>
+        <v>432077.2935265363</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>432077.2935265362</v>
+        <v>432077.2935265363</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>410220.8829378689</v>
+        <v>410220.8829378688</v>
       </c>
     </row>
     <row r="16">
@@ -26329,10 +26331,10 @@
         <v>157852.6389047657</v>
       </c>
       <c r="H2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="I2" t="n">
         <v>157852.6389047657</v>
-      </c>
-      <c r="I2" t="n">
-        <v>157852.6389047658</v>
       </c>
       <c r="J2" t="n">
         <v>157852.6389047657</v>
@@ -26341,7 +26343,7 @@
         <v>157852.6389047657</v>
       </c>
       <c r="L2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="M2" t="n">
         <v>157852.6389047657</v>
@@ -26353,7 +26355,7 @@
         <v>149869.759743185</v>
       </c>
       <c r="P2" t="n">
-        <v>149869.759743185</v>
+        <v>149869.7597431849</v>
       </c>
     </row>
     <row r="3">
@@ -26418,31 +26420,31 @@
         <v>8092.707817725994</v>
       </c>
       <c r="C4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="D4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="E4" t="n">
         <v>8092.707817725994</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="G4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="H4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="I4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="J4" t="n">
         <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342402</v>
+        <v>8547.111069342403</v>
       </c>
       <c r="L4" t="n">
         <v>8547.111069342402</v>
@@ -26457,7 +26459,7 @@
         <v>8092.707817725995</v>
       </c>
       <c r="P4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
     </row>
     <row r="5">
@@ -26519,10 +26521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26780.21040192174</v>
+        <v>26780.21040192173</v>
       </c>
       <c r="C6" t="n">
-        <v>95653.96698361155</v>
+        <v>95653.96698361158</v>
       </c>
       <c r="D6" t="n">
         <v>95653.96698361155</v>
@@ -26540,19 +26542,19 @@
         <v>134651.8590716617</v>
       </c>
       <c r="I6" t="n">
+        <v>134651.8590716616</v>
+      </c>
+      <c r="J6" t="n">
+        <v>80879.34818145218</v>
+      </c>
+      <c r="K6" t="n">
         <v>134651.8590716617</v>
       </c>
-      <c r="J6" t="n">
-        <v>80879.34818145224</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>134651.8590716616</v>
       </c>
-      <c r="L6" t="n">
-        <v>134651.8590716617</v>
-      </c>
       <c r="M6" t="n">
-        <v>134651.8590716617</v>
+        <v>134651.8590716616</v>
       </c>
       <c r="N6" t="n">
         <v>134651.8590716617</v>
@@ -26561,7 +26563,7 @@
         <v>129281.5669836116</v>
       </c>
       <c r="P6" t="n">
-        <v>129281.5669836116</v>
+        <v>129281.5669836115</v>
       </c>
     </row>
   </sheetData>
@@ -34708,13 +34710,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,10 +34786,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N3" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34936,10 +34938,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34948,7 +34950,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>148.1480627106907</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35413,13 +35415,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,16 +35494,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35656,13 +35658,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35744,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35972,13 +35974,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,16 +36922,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37081,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37151,16 +37153,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O33" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37780,10 +37782,10 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
@@ -37795,7 +37797,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>197.2140931478448</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37871,10 +37873,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38023,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N44" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>910691.0069811327</v>
+        <v>806458.5087176893</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4869222.042739264</v>
+        <v>4869222.042739263</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -752,13 +752,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>117.8361325871478</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>8.590354951141759</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>13.96552070152476</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1214,19 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>8.311618392921693</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>99.3767996049539</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,20 +1372,20 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
@@ -1423,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1499,25 +1499,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>80.86228322859418</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>182.1246925118487</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W12" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,46 +1624,46 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1685,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>139.2037313894189</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1736,25 +1736,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>180.2735260549796</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>58.39471844666277</v>
       </c>
       <c r="W17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>40.99260552044372</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1934,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>80.53695628916644</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,28 +2083,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>212.285385643442</v>
+        <v>112.9995969463466</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>34.66067414728059</v>
       </c>
     </row>
     <row r="22">
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="24">
@@ -2399,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>143.1689537721621</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2520,13 +2520,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -2617,10 +2617,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>63.9260459295682</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>156.3074961844608</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,28 +2873,28 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>134.6855069843875</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2933,13 +2933,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>150.9993436124999</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,76 +3028,76 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S32" t="n">
-        <v>62.4162677022923</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0</v>
-      </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
     </row>
     <row r="33">
@@ -3110,25 +3110,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>28.41964442677785</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>68.31015748716329</v>
       </c>
     </row>
     <row r="34">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3277,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3310,25 +3310,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>120.9273370453295</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3350,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3362,13 +3362,13 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>44.83214728656703</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3407,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>226.8622146253026</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3505,25 +3505,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.285385643442</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3584,19 +3584,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>220.0282559522099</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="40">
@@ -3675,43 +3675,43 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3745,58 +3745,58 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F41" t="n">
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G41" t="n">
+      <c r="T41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3839,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>13.74034240511223</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3878,16 +3878,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,58 +3988,58 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="G44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="T44" t="n">
-        <v>9.211010870930394</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>13.9434706946005</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
       <c r="W45" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.5178444382804</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>224.0352098159517</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C2" t="n">
-        <v>224.0352098159517</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D2" t="n">
         <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
         <v>16.44142755506243</v>
@@ -4333,19 +4333,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4363,19 +4363,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>639.2227743377304</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>431.628992076841</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.0352098159517</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>339.8907214957869</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>339.8907214957869</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>339.8907214957869</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>339.8907214957869</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>339.8907214957869</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I3" t="n">
         <v>17.19556020784815</v>
@@ -4418,10 +4418,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O3" t="n">
         <v>570.0333416264414</v>
@@ -4433,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>639.976906990516</v>
       </c>
       <c r="U3" t="n">
-        <v>547.4845037566762</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="V3" t="n">
-        <v>339.8907214957869</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="W3" t="n">
-        <v>339.8907214957869</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X3" t="n">
-        <v>339.8907214957869</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y3" t="n">
-        <v>339.8907214957869</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="4">
@@ -4509,22 +4509,22 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
         <v>16.44142755506243</v>
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4579,40 +4579,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="6">
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177.0825720953742</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>177.0825720953742</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>177.0825720953742</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>162.9759855281775</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
         <v>16.44142755506243</v>
@@ -4655,13 +4655,13 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P6" t="n">
         <v>822.0713777531216</v>
@@ -4670,28 +4670,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T6" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U6" t="n">
-        <v>345.2979091154422</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V6" t="n">
-        <v>345.2979091154422</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W6" t="n">
-        <v>345.2979091154422</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X6" t="n">
-        <v>345.2979091154422</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y6" t="n">
-        <v>345.2979091154422</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>255.5008658160403</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
         <v>16.44142755506243</v>
@@ -4807,16 +4807,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4831,25 +4831,25 @@
         <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>670.6884303378189</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T8" t="n">
-        <v>670.6884303378189</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U8" t="n">
-        <v>670.6884303378189</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V8" t="n">
-        <v>670.6884303378189</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W8" t="n">
-        <v>670.6884303378189</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X8" t="n">
-        <v>463.0946480769296</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.5008658160403</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>199.2900309704538</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="C9" t="n">
-        <v>24.83700168932677</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>263.3565911897471</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>263.3565911897471</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>116.822033216632</v>
       </c>
       <c r="G9" t="n">
         <v>16.44142755506243</v>
@@ -4886,22 +4886,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4913,22 +4913,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X9" t="n">
-        <v>406.8838132313431</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y9" t="n">
-        <v>199.2900309704538</v>
+        <v>412.2910008509983</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
         <v>224.0352098159517</v>
@@ -5029,7 +5029,7 @@
         <v>224.0352098159517</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G11" t="n">
         <v>16.44142755506243</v>
@@ -5053,7 +5053,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O11" t="n">
         <v>732.4113224610707</v>
@@ -5071,10 +5071,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V11" t="n">
         <v>639.2227743377304</v>
@@ -5083,10 +5083,10 @@
         <v>431.628992076841</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5126,16 +5126,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>163.1080096386462</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5147,25 +5147,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U12" t="n">
-        <v>639.2227743377304</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="V12" t="n">
-        <v>431.628992076841</v>
+        <v>363.520167886122</v>
       </c>
       <c r="W12" t="n">
-        <v>224.0352098159517</v>
+        <v>363.520167886122</v>
       </c>
       <c r="X12" t="n">
-        <v>224.0352098159517</v>
+        <v>155.9263856252326</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>155.9263856252326</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5226,25 +5226,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.19556020784815</v>
+        <v>480.4386961837225</v>
       </c>
       <c r="C15" t="n">
-        <v>17.19556020784815</v>
+        <v>305.9856669025954</v>
       </c>
       <c r="D15" t="n">
-        <v>17.19556020784815</v>
+        <v>157.0512572413442</v>
       </c>
       <c r="E15" t="n">
-        <v>17.19556020784815</v>
+        <v>157.0512572413442</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>435.9652341458732</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N15" t="n">
         <v>435.9652341458732</v>
@@ -5384,25 +5384,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U15" t="n">
-        <v>614.4775954922324</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V15" t="n">
-        <v>406.8838132313431</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W15" t="n">
-        <v>199.2900309704538</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X15" t="n">
-        <v>199.2900309704538</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.19556020784815</v>
+        <v>648.6540332037905</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5475,13 +5475,13 @@
         <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V17" t="n">
-        <v>720.6083788665362</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W17" t="n">
-        <v>477.1596022224361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X17" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="18">
@@ -5570,16 +5570,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>548.4453565401495</v>
+        <v>613.6294536151166</v>
       </c>
       <c r="C18" t="n">
-        <v>373.9923272590225</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="D18" t="n">
-        <v>373.9923272590225</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E18" t="n">
-        <v>214.754872253567</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F18" t="n">
         <v>133.4044113554191</v>
@@ -5603,13 +5603,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>756.2056553051034</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y18" t="n">
-        <v>548.4453565401495</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="19">
@@ -5700,16 +5700,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U20" t="n">
-        <v>749.627473042513</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="V20" t="n">
-        <v>506.1786963984129</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>487.4018176583718</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5837,16 +5837,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5861,22 +5861,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X21" t="n">
-        <v>257.2326523711826</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y21" t="n">
-        <v>49.47235360622864</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="22">
@@ -5940,13 +5940,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -6019,13 +6019,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
         <v>749.627473042513</v>
@@ -6034,7 +6034,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>312.8306575918298</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>163.8962479305785</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6071,49 +6071,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>487.2836868729568</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V24" t="n">
-        <v>487.2836868729568</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W24" t="n">
-        <v>487.2836868729568</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X24" t="n">
-        <v>487.2836868729568</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y24" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6168,22 +6168,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
         <v>19.28114311021272</v>
@@ -6253,25 +6253,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>527.5764290961142</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>284.1276524520142</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V26" t="n">
-        <v>284.1276524520142</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W26" t="n">
-        <v>284.1276524520142</v>
+        <v>251.810259228364</v>
       </c>
       <c r="X26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>284.1276524520142</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.4883050441255</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G27" t="n">
         <v>20.03527576299844</v>
@@ -6308,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>259.0600686093459</v>
+        <v>632.7534511790215</v>
       </c>
       <c r="W27" t="n">
-        <v>259.0600686093459</v>
+        <v>632.7534511790215</v>
       </c>
       <c r="X27" t="n">
-        <v>259.0600686093459</v>
+        <v>632.7534511790215</v>
       </c>
       <c r="Y27" t="n">
-        <v>259.0600686093459</v>
+        <v>632.7534511790215</v>
       </c>
     </row>
     <row r="28">
@@ -6414,13 +6414,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6490,25 +6490,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="W30" t="n">
-        <v>609.3459713618265</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="X30" t="n">
-        <v>401.4944711562937</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="Y30" t="n">
-        <v>193.7341723913397</v>
+        <v>726.8416594126254</v>
       </c>
     </row>
     <row r="31">
@@ -6648,19 +6648,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
         <v>19.28114311021272</v>
@@ -6679,10 +6679,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>284.787934186969</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="C33" t="n">
-        <v>110.334904905842</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D33" t="n">
-        <v>110.334904905842</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E33" t="n">
-        <v>110.334904905842</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F33" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G33" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6782,49 +6782,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>660.7635699719909</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>660.7635699719909</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>660.7635699719909</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>660.7635699719909</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>660.7635699719909</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y33" t="n">
-        <v>453.003271207037</v>
+        <v>895.0569964326935</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
         <v>19.28114311021272</v>
@@ -6894,16 +6894,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D35" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E35" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>243.9530410142718</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>243.9530410142718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W35" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X35" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y35" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>353.7257600495809</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="C36" t="n">
-        <v>179.2727307684539</v>
+        <v>372.7380050360781</v>
       </c>
       <c r="D36" t="n">
-        <v>179.2727307684539</v>
+        <v>223.8035953748268</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>64.56614036937134</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>64.56614036937134</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>64.56614036937134</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7055,13 +7055,13 @@
         <v>790.6398109613051</v>
       </c>
       <c r="W36" t="n">
-        <v>561.4860588145348</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X36" t="n">
-        <v>561.4860588145348</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y36" t="n">
-        <v>353.7257600495809</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U38" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V38" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>640.636862475431</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>466.183833194304</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>317.2494235330527</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>640.636862475431</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>640.636862475431</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>640.636862475431</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="C41" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
@@ -7438,25 +7438,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T41" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="U41" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="V41" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="W41" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="X41" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="Y41" t="n">
-        <v>822.0713777531216</v>
+        <v>236.1051990630351</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
         <v>822.0713777531216</v>
@@ -7526,16 +7526,16 @@
         <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H43" t="n">
         <v>16.44142755506243</v>
@@ -7602,19 +7602,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>443.6989813239244</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C44" t="n">
-        <v>443.6989813239244</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D44" t="n">
-        <v>443.6989813239244</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E44" t="n">
-        <v>443.6989813239244</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F44" t="n">
-        <v>236.1051990630351</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7657,43 +7657,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U44" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V44" t="n">
-        <v>443.6989813239244</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W44" t="n">
-        <v>443.6989813239244</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X44" t="n">
-        <v>443.6989813239244</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y44" t="n">
-        <v>443.6989813239244</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7739,13 +7739,13 @@
         <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7754,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W45" t="n">
-        <v>431.628992076841</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X45" t="n">
-        <v>224.0352098159517</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="46">
@@ -7833,16 +7833,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N2" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8066,13 +8066,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8227,13 +8227,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8303,16 +8303,16 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>212.7243290316435</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8455,19 +8455,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
@@ -8549,10 +8549,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8701,10 +8701,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8774,10 +8774,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>160.0786444523452</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8786,7 +8786,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -8938,13 +8938,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>154.8597658442563</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9251,16 +9251,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9485,19 +9485,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9968,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,7 +10202,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>292.5201795090609</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,22 +10670,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>371.3463732493024</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11074,10 +11074,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11153,10 +11153,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11387,16 +11387,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O45" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822432</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22567,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22603,16 +22603,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>70.32553552659914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>19.5073845760628</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>191.5743737436798</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
         <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22749,10 +22749,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434959</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22767,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22786,7 +22786,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>37.99065141955279</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22846,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22871,10 +22871,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>143.6795597538762</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>323.5320421805953</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>191.9448501240437</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -23102,19 +23102,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>139.1334471717171</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>37.96671755825673</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,10 +23269,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23311,19 +23311,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23351,7 +23351,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,25 +23387,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>145.0790988523806</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>50.67589463757659</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23500,7 +23500,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>195.6029128086029</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23512,13 +23512,13 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23551,7 +23551,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23573,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>5.865481003964987</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23597,7 +23597,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23624,25 +23624,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>25.4091697223248</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23746,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,31 +23776,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>269.3575400234722</v>
       </c>
       <c r="W17" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>125.5405781294236</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>64.53225610421744</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23940,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23986,13 +23986,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>39.0602672643945</v>
+        <v>138.3460559614899</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>136.6438852588116</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24071,7 +24071,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>171.0220216300238</v>
       </c>
     </row>
     <row r="22">
@@ -24180,7 +24180,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
         <v>286.3190293564909</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24259,7 +24259,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24287,13 +24287,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>14.47612668323882</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24408,13 +24408,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>176.9916737032986</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>344.0891364002832</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24493,7 +24493,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24505,10 +24505,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>139.5272757214993</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>102.6071377202991</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24569,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>76.49309096496447</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24654,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>119.4884220823225</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24761,28 +24761,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>36.99766411945029</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24821,13 +24821,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>100.6956395484197</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24888,7 +24888,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24964,13 +24964,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>156.0341136990839</v>
       </c>
     </row>
     <row r="33">
@@ -24998,25 +24998,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>171.7450842680437</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25064,7 +25064,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>137.3725382901411</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25134,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25165,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25174,10 +25174,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,25 +25198,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>130.418315862507</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25250,13 +25250,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>67.40329694992943</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25295,13 +25295,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>24.83276853561699</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25362,10 +25362,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25393,25 +25393,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25438,16 +25438,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>10.81046392068936</v>
+        <v>130.141182554586</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25472,19 +25472,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>31.66672720870966</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="40">
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
         <v>162.2271725074396</v>
@@ -25599,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25633,25 +25633,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>173.6629242394456</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>82.2748248812116</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25727,10 +25727,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>75.65629044630285</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25766,16 +25766,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>24.75286782224003</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25803,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25842,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,19 +25876,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,16 +25909,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>213.8848386932009</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25927,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25949,7 +25949,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>133.5015948700382</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25994,22 +25994,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>70.67486577968219</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0.1648513390239543</v>
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>410220.8829378688</v>
+        <v>410220.8829378689</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410220.8829378687</v>
+        <v>410220.8829378688</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>432077.2935265363</v>
+        <v>432077.2935265364</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>432077.2935265363</v>
+        <v>432077.2935265364</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>432077.2935265363</v>
+        <v>432077.2935265362</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>432077.2935265364</v>
+        <v>432077.2935265363</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>432077.2935265363</v>
+        <v>432077.2935265362</v>
       </c>
     </row>
     <row r="15">
@@ -26334,7 +26334,7 @@
         <v>157852.6389047658</v>
       </c>
       <c r="I2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="J2" t="n">
         <v>157852.6389047657</v>
@@ -26346,7 +26346,7 @@
         <v>157852.6389047657</v>
       </c>
       <c r="M2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="N2" t="n">
         <v>157852.6389047657</v>
@@ -26355,7 +26355,7 @@
         <v>149869.759743185</v>
       </c>
       <c r="P2" t="n">
-        <v>149869.7597431849</v>
+        <v>149869.759743185</v>
       </c>
     </row>
     <row r="3">
@@ -26423,13 +26423,13 @@
         <v>8092.707817725994</v>
       </c>
       <c r="D4" t="n">
-        <v>8092.707817725994</v>
+        <v>8092.707817725995</v>
       </c>
       <c r="E4" t="n">
         <v>8092.707817725994</v>
       </c>
       <c r="F4" t="n">
-        <v>8092.707817725995</v>
+        <v>8092.707817725994</v>
       </c>
       <c r="G4" t="n">
         <v>8547.111069342402</v>
@@ -26444,7 +26444,7 @@
         <v>8547.111069342402</v>
       </c>
       <c r="K4" t="n">
-        <v>8547.111069342403</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="L4" t="n">
         <v>8547.111069342402</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26780.21040192173</v>
+        <v>14142.04824706123</v>
       </c>
       <c r="C6" t="n">
-        <v>95653.96698361158</v>
+        <v>83015.80482875102</v>
       </c>
       <c r="D6" t="n">
-        <v>95653.96698361155</v>
+        <v>83015.80482875108</v>
       </c>
       <c r="E6" t="n">
-        <v>129281.5669836116</v>
+        <v>116643.4048287511</v>
       </c>
       <c r="F6" t="n">
-        <v>129281.5669836116</v>
+        <v>116643.4048287511</v>
       </c>
       <c r="G6" t="n">
-        <v>124922.8160974946</v>
+        <v>112704.8054774541</v>
       </c>
       <c r="H6" t="n">
-        <v>134651.8590716617</v>
+        <v>122433.8484516212</v>
       </c>
       <c r="I6" t="n">
-        <v>134651.8590716616</v>
+        <v>122433.8484516212</v>
       </c>
       <c r="J6" t="n">
-        <v>80879.34818145218</v>
+        <v>68661.33756141177</v>
       </c>
       <c r="K6" t="n">
-        <v>134651.8590716617</v>
+        <v>122433.8484516212</v>
       </c>
       <c r="L6" t="n">
-        <v>134651.8590716616</v>
+        <v>122433.8484516212</v>
       </c>
       <c r="M6" t="n">
-        <v>134651.8590716616</v>
+        <v>122433.8484516212</v>
       </c>
       <c r="N6" t="n">
-        <v>134651.8590716617</v>
+        <v>122433.8484516212</v>
       </c>
       <c r="O6" t="n">
-        <v>129281.5669836116</v>
+        <v>116643.4048287511</v>
       </c>
       <c r="P6" t="n">
-        <v>129281.5669836115</v>
+        <v>116643.4048287511</v>
       </c>
     </row>
   </sheetData>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N2" t="n">
-        <v>171.5974510766996</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34786,13 +34786,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34947,13 +34947,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35023,16 +35023,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
@@ -35269,10 +35269,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35421,10 +35421,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P11" t="n">
         <v>90.5657124162131</v>
@@ -35494,10 +35494,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35506,7 +35506,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35649,7 +35649,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
@@ -35658,13 +35658,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>91.61977832229879</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35971,16 +35971,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O18" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O24" t="n">
-        <v>99.8112771299739</v>
-      </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36688,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36922,7 +36922,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>240.0046611659691</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37794,10 +37794,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37873,10 +37873,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38034,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38107,16 +38107,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
+        <v>0.4947814597977008</v>
+      </c>
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O45" t="n">
-        <v>70.5902951096252</v>
-      </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
